--- a/pearson_tables/tp_netherlands_cumul-3-9.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8014647064280416</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5618080346106301</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5907107484035961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7027222694909322</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8554373141692894</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8253534552965016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6854564718708031</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5986574538248722</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5271679296779866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5773603664280771</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5256246752928957</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6270706618690293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6282222476904602</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7538659408257796</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.573664078484293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7026892972555625</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6804220520785844</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5704905668811086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7941328810006267</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7879990629652256</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8144919536904547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6938807608003323</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7462240844913542</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7250727923374024</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
